--- a/2023/france_ligue-2_2023-2024.xlsx
+++ b/2023/france_ligue-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Caen</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
       <c r="J2" t="n">
-        <v>2.27</v>
+        <v>2.21</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3.63</v>
+        <v>2.61</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 18:56</t>
+          <t>05/08/2023 18:52</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.27</v>
+        <v>3.39</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 18:56</t>
+          <t>05/08/2023 18:51</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.37</v>
+        <v>3.2</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 18:56</t>
+          <t>05/08/2023 18:52</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/paris-fc-caen/lAKLH5E8/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/amiens-sc-quevilly/hriXAZud/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.21</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>12/07/2023 09:42</t>
+          <t>12/07/2023 09:48</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.61</v>
+        <v>4.05</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 18:52</t>
+          <t>05/08/2023 18:54</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.39</v>
+        <v>3.08</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>12/07/2023 09:42</t>
+          <t>12/07/2023 09:48</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 18:51</t>
+          <t>05/08/2023 18:57</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.2</v>
+        <v>2.39</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>12/07/2023 09:42</t>
+          <t>12/07/2023 09:48</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.88</v>
+        <v>1.99</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 18:52</t>
+          <t>05/08/2023 18:57</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/amiens-sc-quevilly/hriXAZud/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/valenciennes-auxerre/AJLHIoa2/</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,42 +1133,42 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>12/07/2023 09:48</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>05/08/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>3.15</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>12/07/2023 09:48</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>05/08/2023 18:54</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>12/07/2023 09:48</t>
-        </is>
-      </c>
       <c r="P8" t="n">
-        <v>3.52</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 18:57</t>
+          <t>05/08/2023 18:58</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.99</v>
+        <v>2.93</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 18:57</t>
+          <t>05/08/2023 18:56</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/valenciennes-auxerre/AJLHIoa2/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/laval-angers/WYkyAge2/</t>
         </is>
       </c>
     </row>
@@ -1217,30 +1217,30 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.08</v>
+        <v>2.27</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12/07/2023 09:48</t>
+          <t>12/07/2023 09:42</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.78</v>
+        <v>3.63</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1248,31 +1248,31 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12/07/2023 09:48</t>
+          <t>12/07/2023 09:42</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 18:58</t>
+          <t>05/08/2023 18:56</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.39</v>
+        <v>3.37</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>12/07/2023 09:48</t>
+          <t>12/07/2023 09:42</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.93</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/laval-angers/WYkyAge2/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/paris-fc-caen/lAKLH5E8/</t>
         </is>
       </c>
     </row>
@@ -1493,26 +1493,26 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>05/08/2023 19:12</t>
+          <t>07/08/2023 22:42</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1520,44 +1520,44 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>12/08/2023 18:56</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.48</v>
+        <v>3.79</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>05/08/2023 19:12</t>
+          <t>07/08/2023 22:42</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.53</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>12/08/2023 18:56</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.35</v>
+        <v>4.72</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>05/08/2023 19:12</t>
+          <t>07/08/2023 22:42</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>5.59</v>
+        <v>5.16</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>12/08/2023 18:56</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/bastia-valenciennes/WrgGiaXR/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/auxerre-amiens-sc/lOurmJuq/</t>
         </is>
       </c>
     </row>
@@ -2045,26 +2045,26 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Amiens</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/08/2023 22:42</t>
+          <t>05/08/2023 19:12</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -2072,44 +2072,44 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.79</v>
+        <v>3.48</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/08/2023 22:42</t>
+          <t>05/08/2023 19:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>3.53</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:56</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.72</v>
+        <v>4.35</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/08/2023 22:42</t>
+          <t>05/08/2023 19:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.16</v>
+        <v>5.59</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:56</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/auxerre-amiens-sc/lOurmJuq/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/bastia-valenciennes/WrgGiaXR/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.29</v>
+        <v>1.91</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>22/08/2023 01:13</t>
+          <t>22/08/2023 01:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.48</v>
+        <v>1.81</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:59</t>
+          <t>26/08/2023 18:51</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.25</v>
+        <v>3.47</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>22/08/2023 01:13</t>
+          <t>22/08/2023 01:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.27</v>
+        <v>3.73</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:59</t>
+          <t>26/08/2023 18:51</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.34</v>
+        <v>4.31</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>22/08/2023 01:13</t>
+          <t>22/08/2023 01:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.08</v>
+        <v>4.63</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:59</t>
+          <t>26/08/2023 18:51</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/paris-fc-concarneau/0nBK9XhD/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/auxerre-grenoble/QTI7CZ8f/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.91</v>
+        <v>2.13</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>26/08/2023 18:51</t>
+          <t>26/08/2023 18:56</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.47</v>
+        <v>3.44</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.73</v>
+        <v>3.62</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>26/08/2023 18:51</t>
+          <t>26/08/2023 18:56</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.31</v>
+        <v>3.64</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.63</v>
+        <v>3.98</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>26/08/2023 18:51</t>
+          <t>26/08/2023 18:52</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/auxerre-grenoble/QTI7CZ8f/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/bastia-troyes/dfE3DFgl/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.13</v>
+        <v>2.44</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>22/08/2023 01:12</t>
+          <t>22/08/2023 01:13</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.97</v>
+        <v>2.96</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>26/08/2023 18:56</t>
+          <t>26/08/2023 18:49</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.44</v>
+        <v>3.26</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>22/08/2023 01:12</t>
+          <t>22/08/2023 01:13</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.62</v>
+        <v>3.28</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>26/08/2023 18:56</t>
+          <t>26/08/2023 18:49</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.64</v>
+        <v>2.91</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>22/08/2023 01:12</t>
+          <t>22/08/2023 01:13</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.98</v>
+        <v>2.56</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>26/08/2023 18:52</t>
+          <t>26/08/2023 18:49</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/bastia-troyes/dfE3DFgl/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/dunkerque-angers/Eka2YGVD/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.67</v>
+        <v>2.62</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.75</v>
+        <v>2.07</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>26/08/2023 18:51</t>
+          <t>26/08/2023 18:55</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.81</v>
+        <v>3.16</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.66</v>
+        <v>3.1</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>26/08/2023 18:51</t>
+          <t>26/08/2023 18:55</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.87</v>
+        <v>2.9</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.18</v>
+        <v>4.39</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>26/08/2023 18:51</t>
+          <t>26/08/2023 18:55</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/guingamp-pau/nq7GADw7/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/quevilly-laval/jFMVGl0t/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>22/08/2023 01:13</t>
+          <t>19/08/2023 18:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.96</v>
+        <v>2.01</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>26/08/2023 18:49</t>
+          <t>26/08/2023 18:36</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.26</v>
+        <v>3.51</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>22/08/2023 01:13</t>
+          <t>19/08/2023 18:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.28</v>
+        <v>3.21</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>26/08/2023 18:49</t>
+          <t>26/08/2023 18:36</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.91</v>
+        <v>4.22</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>22/08/2023 01:13</t>
+          <t>19/08/2023 18:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.56</v>
+        <v>4.45</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>26/08/2023 18:49</t>
+          <t>26/08/2023 18:18</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/dunkerque-angers/Eka2YGVD/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/rodez-valenciennes/IygSF8Fn/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.62</v>
+        <v>1.67</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.07</v>
+        <v>1.75</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>26/08/2023 18:55</t>
+          <t>26/08/2023 18:51</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.16</v>
+        <v>3.81</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.1</v>
+        <v>3.66</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>26/08/2023 18:55</t>
+          <t>26/08/2023 18:51</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.9</v>
+        <v>4.87</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4.39</v>
+        <v>5.18</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>26/08/2023 18:55</t>
+          <t>26/08/2023 18:51</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/quevilly-laval/jFMVGl0t/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/guingamp-pau/nq7GADw7/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Valenciennes</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
       <c r="J39" t="n">
-        <v>1.84</v>
+        <v>2.29</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>19/08/2023 18:12</t>
+          <t>22/08/2023 01:13</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.01</v>
+        <v>2.48</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>26/08/2023 18:36</t>
+          <t>26/08/2023 18:59</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>19/08/2023 18:12</t>
+          <t>22/08/2023 01:13</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.21</v>
+        <v>3.27</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>26/08/2023 18:36</t>
+          <t>26/08/2023 18:59</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.22</v>
+        <v>3.34</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>19/08/2023 18:12</t>
+          <t>22/08/2023 01:13</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.45</v>
+        <v>3.08</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>26/08/2023 18:18</t>
+          <t>26/08/2023 18:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/rodez-valenciennes/IygSF8Fn/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/paris-fc-concarneau/0nBK9XhD/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2.77</v>
+        <v>3.75</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.97</v>
+        <v>3.78</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:54</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.01</v>
+        <v>3.27</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:54</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.61</v>
+        <v>2.02</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.75</v>
+        <v>2.16</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:54</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/rodez-angers/KUQiuPrb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/valenciennes-bordeaux/nyDUNNDN/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.91</v>
+        <v>2.77</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.93</v>
+        <v>2.97</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>16/09/2023 18:58</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.45</v>
+        <v>3.17</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.37</v>
+        <v>3.01</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16/09/2023 18:58</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.01</v>
+        <v>2.61</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.54</v>
+        <v>2.75</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>16/09/2023 18:58</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/quevilly-concarneau/x6ymt5Ti/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/rodez-angers/KUQiuPrb/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>3</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Amiens</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
       <c r="J54" t="n">
-        <v>2.53</v>
+        <v>1.91</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.77</v>
+        <v>1.93</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.2</v>
+        <v>3.37</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.81</v>
+        <v>4.01</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.78</v>
+        <v>4.54</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/paris-fc-amiens-sc/W8l1I1yo/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/quevilly-concarneau/x6ymt5Ti/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.4</v>
+        <v>2.53</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.27</v>
+        <v>2.77</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>16/09/2023 18:55</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.39</v>
+        <v>3.2</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>16/09/2023 18:55</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.36</v>
+        <v>2.78</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>16/09/2023 18:34</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/annecy-troyes/rqGDR5Eb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/paris-fc-amiens-sc/W8l1I1yo/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,14 +5549,14 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.99</v>
+        <v>2.68</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>16/09/2023 18:57</t>
+          <t>16/09/2023 18:51</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.36</v>
+        <v>3.13</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>16/09/2023 18:57</t>
+          <t>16/09/2023 18:51</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.82</v>
+        <v>2.72</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.36</v>
+        <v>2.93</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>16/09/2023 18:57</t>
+          <t>16/09/2023 18:51</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/bastia-laval/0KAIQPT4/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/dunkerque-grenoble/bFxqsoEo/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>1.39</v>
+        <v>1.99</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.43</v>
+        <v>2.42</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:57</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.59</v>
+        <v>3.36</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.73</v>
+        <v>3.1</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:57</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>7.49</v>
+        <v>3.82</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>7.97</v>
+        <v>3.36</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:57</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/auxerre-pau/vB9MPqqB/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/bastia-laval/0KAIQPT4/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>3.75</v>
+        <v>1.39</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.78</v>
+        <v>1.43</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16/09/2023 18:54</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.34</v>
+        <v>4.59</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.27</v>
+        <v>4.73</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16/09/2023 18:54</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.02</v>
+        <v>7.49</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.16</v>
+        <v>7.97</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/09/2023 18:54</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/valenciennes-bordeaux/nyDUNNDN/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/auxerre-pau/vB9MPqqB/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.7</v>
+        <v>2.27</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:51</t>
+          <t>16/09/2023 18:55</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.13</v>
+        <v>3.28</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.11</v>
+        <v>3.39</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:51</t>
+          <t>16/09/2023 18:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.72</v>
+        <v>2.95</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.93</v>
+        <v>3.36</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:51</t>
+          <t>16/09/2023 18:34</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/dunkerque-grenoble/bFxqsoEo/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/annecy-troyes/rqGDR5Eb/</t>
         </is>
       </c>
     </row>
@@ -5974,6 +5974,834 @@
       <c r="V60" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-2/guingamp-ac-ajaccio/Ua2ZMsTT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45192.625</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/troyes-auxerre/IwSsVvLj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>AC Ajaccio</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Paris FC</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/ac-ajaccio-paris-fc/SfUaw3DA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Amiens</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>16/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>16/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>16/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/amiens-sc-valenciennes/YXUevqb4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:52</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:52</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/angers-bastia/OMN8ysrN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>St Etienne</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:36</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:36</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:36</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/concarneau-st-etienne/bZ4UhrDc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/dunkerque-rodez/Kr6QgOci/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>16/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:37</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>16/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:37</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>16/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:37</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/grenoble-quevilly/S89Yi2S3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:52</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:55</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:52</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/laval-guingamp/Kh9vWK5p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Pau FC</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>16/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>16/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>16/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/pau-annecy/6oT3xNSG/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-2_2023-2024.xlsx
+++ b/2023/france_ligue-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.61</v>
+        <v>3.63</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 18:52</t>
+          <t>05/08/2023 18:56</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 18:51</t>
+          <t>05/08/2023 18:56</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.2</v>
+        <v>3.37</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 18:52</t>
+          <t>05/08/2023 18:56</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/amiens-sc-quevilly/hriXAZud/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/paris-fc-caen/lAKLH5E8/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>2.21</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>12/07/2023 09:48</t>
+          <t>12/07/2023 09:42</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4.05</v>
+        <v>2.61</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 18:54</t>
+          <t>05/08/2023 18:52</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.08</v>
+        <v>3.39</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>12/07/2023 09:48</t>
+          <t>12/07/2023 09:42</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 18:57</t>
+          <t>05/08/2023 18:51</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.39</v>
+        <v>3.2</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>12/07/2023 09:48</t>
+          <t>12/07/2023 09:42</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1.99</v>
+        <v>2.88</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 18:57</t>
+          <t>05/08/2023 18:52</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/valenciennes-auxerre/AJLHIoa2/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/amiens-sc-quevilly/hriXAZud/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.27</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12/07/2023 09:42</t>
+          <t>12/07/2023 09:48</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3.63</v>
+        <v>4.05</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/08/2023 18:56</t>
+          <t>05/08/2023 18:54</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12/07/2023 09:42</t>
+          <t>12/07/2023 09:48</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.29</v>
+        <v>3.52</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 18:56</t>
+          <t>05/08/2023 18:57</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.37</v>
+        <v>2.39</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>12/07/2023 09:42</t>
+          <t>12/07/2023 09:48</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/08/2023 18:56</t>
+          <t>05/08/2023 18:57</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/paris-fc-caen/lAKLH5E8/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/valenciennes-auxerre/AJLHIoa2/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.5</v>
+        <v>1.56</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>28/08/2023 20:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.4</v>
+        <v>1.52</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 18:55</t>
+          <t>02/09/2023 18:54</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.32</v>
+        <v>4.45</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>28/08/2023 20:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.12</v>
+        <v>4.38</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 18:55</t>
+          <t>02/09/2023 18:54</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.93</v>
+        <v>5.75</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>28/08/2023 20:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.37</v>
+        <v>6.63</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 18:55</t>
+          <t>02/09/2023 18:54</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/amiens-sc-guingamp/dSiWESUh/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/st-etienne-valenciennes/fsliA4qO/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,38 +4445,38 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>28/08/2023 02:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.99</v>
+        <v>2.97</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 18:51</t>
+          <t>02/09/2023 18:54</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.4</v>
+        <v>3.27</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>28/08/2023 02:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,15 +4484,15 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>28/08/2023 02:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.27</v>
+        <v>2.68</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/angers-paris-fc/nHpqCQEB/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/pau-rodez/4hevD6a5/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>2.11</v>
+        <v>2.4</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>28/08/2023 20:12</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.32</v>
+        <v>3.27</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 18:52</t>
+          <t>02/09/2023 18:54</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>28/08/2023 20:12</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.35</v>
+        <v>3.19</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 18:51</t>
+          <t>02/09/2023 18:54</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.73</v>
+        <v>3.14</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>28/08/2023 20:12</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.29</v>
+        <v>2.42</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 18:52</t>
+          <t>02/09/2023 18:54</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/concarneau-annecy/AVH5TRqn/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/laval-caen/YXne9ObU/</t>
         </is>
       </c>
     </row>
@@ -4621,30 +4621,30 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2.87</v>
+        <v>2</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>28/08/2023 02:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.17</v>
+        <v>2.97</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,40 +4652,40 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.16</v>
+        <v>3.57</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>28/08/2023 02:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
+          <t>02/09/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>28/08/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
           <t>02/09/2023 18:59</t>
         </is>
       </c>
-      <c r="R46" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:59</t>
-        </is>
-      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/grenoble-bastia/4hH9Soah/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/troyes-quevilly/beE1U7Uu/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.4</v>
+        <v>2.11</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>28/08/2023 20:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.27</v>
+        <v>2.32</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>02/09/2023 18:54</t>
+          <t>02/09/2023 18:52</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.25</v>
+        <v>3.42</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>28/08/2023 20:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.19</v>
+        <v>3.35</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>02/09/2023 18:54</t>
+          <t>02/09/2023 18:51</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.14</v>
+        <v>3.73</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>28/08/2023 20:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.42</v>
+        <v>3.29</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>02/09/2023 18:54</t>
+          <t>02/09/2023 18:52</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/laval-caen/YXne9ObU/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/concarneau-annecy/AVH5TRqn/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
         <v>2</v>
       </c>
-      <c r="J48" t="n">
-        <v>2.46</v>
-      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>28/08/2023 02:42</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.97</v>
+        <v>1.99</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>02/09/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>28/08/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
           <t>02/09/2023 18:54</t>
         </is>
       </c>
-      <c r="N48" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:13</t>
-        </is>
-      </c>
-      <c r="P48" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q48" t="inlineStr">
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>28/08/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="U48" t="inlineStr">
         <is>
           <t>02/09/2023 18:54</t>
         </is>
       </c>
-      <c r="R48" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T48" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:54</t>
-        </is>
-      </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/pau-rodez/4hevD6a5/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/angers-paris-fc/nHpqCQEB/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.56</v>
+        <v>2.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>28/08/2023 20:12</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.52</v>
+        <v>2.4</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>02/09/2023 18:54</t>
+          <t>02/09/2023 18:55</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.45</v>
+        <v>3.32</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>28/08/2023 20:12</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.38</v>
+        <v>3.12</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>02/09/2023 18:54</t>
+          <t>02/09/2023 18:55</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>5.75</v>
+        <v>2.93</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>28/08/2023 20:12</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>6.63</v>
+        <v>3.37</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>02/09/2023 18:54</t>
+          <t>02/09/2023 18:55</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/st-etienne-valenciennes/fsliA4qO/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/amiens-sc-guingamp/dSiWESUh/</t>
         </is>
       </c>
     </row>
@@ -4989,30 +4989,30 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>2.87</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>28/08/2023 02:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.97</v>
+        <v>2.17</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,31 +5020,31 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.57</v>
+        <v>3.16</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>28/08/2023 02:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>02/09/2023 18:54</t>
+          <t>02/09/2023 18:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.54</v>
+        <v>2.65</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>28/08/2023 02:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.61</v>
+        <v>3.75</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/troyes-quevilly/beE1U7Uu/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/grenoble-bastia/4hH9Soah/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>1</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Bordeaux</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
       <c r="J52" t="n">
-        <v>3.75</v>
+        <v>2.77</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.78</v>
+        <v>2.97</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>16/09/2023 18:54</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.27</v>
+        <v>3.01</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>16/09/2023 18:54</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.02</v>
+        <v>2.61</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.16</v>
+        <v>2.75</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>16/09/2023 18:54</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/valenciennes-bordeaux/nyDUNNDN/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/rodez-angers/KUQiuPrb/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.77</v>
+        <v>2.4</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.97</v>
+        <v>2.27</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:55</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.17</v>
+        <v>3.28</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.01</v>
+        <v>3.39</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:55</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.61</v>
+        <v>2.95</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.75</v>
+        <v>3.36</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:34</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/rodez-angers/KUQiuPrb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/annecy-troyes/rqGDR5Eb/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1.91</v>
+        <v>1.39</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.93</v>
+        <v>1.43</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/09/2023 18:58</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.45</v>
+        <v>4.59</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.37</v>
+        <v>4.73</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/09/2023 18:58</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.01</v>
+        <v>7.49</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.54</v>
+        <v>7.97</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/09/2023 18:58</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/quevilly-concarneau/x6ymt5Ti/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/auxerre-pau/vB9MPqqB/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>3</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Amiens</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
       <c r="J55" t="n">
-        <v>2.53</v>
+        <v>1.99</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.77</v>
+        <v>2.42</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:57</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:57</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.81</v>
+        <v>3.82</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.78</v>
+        <v>3.36</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:57</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/paris-fc-amiens-sc/W8l1I1yo/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/bastia-laval/0KAIQPT4/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Amiens</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Laval</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
       <c r="J57" t="n">
-        <v>1.99</v>
+        <v>2.53</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.42</v>
+        <v>2.77</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>16/09/2023 18:57</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>16/09/2023 18:57</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.82</v>
+        <v>2.81</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.36</v>
+        <v>2.78</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>16/09/2023 18:57</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/bastia-laval/0KAIQPT4/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/paris-fc-amiens-sc/W8l1I1yo/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1.39</v>
+        <v>1.91</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.43</v>
+        <v>1.93</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:58</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.59</v>
+        <v>3.45</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.73</v>
+        <v>3.37</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:58</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>7.49</v>
+        <v>4.01</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>7.97</v>
+        <v>4.54</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:58</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/auxerre-pau/vB9MPqqB/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/quevilly-concarneau/x6ymt5Ti/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.27</v>
+        <v>3.78</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:55</t>
+          <t>16/09/2023 18:54</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:55</t>
+          <t>16/09/2023 18:54</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.95</v>
+        <v>2.02</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.36</v>
+        <v>2.16</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:34</t>
+          <t>16/09/2023 18:54</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/annecy-troyes/rqGDR5Eb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/valenciennes-bordeaux/nyDUNNDN/</t>
         </is>
       </c>
     </row>
@@ -6093,30 +6093,30 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
-        <v>1.97</v>
+        <v>2.11</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>19/09/2023 06:42</t>
+          <t>16/09/2023 18:12</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.14</v>
+        <v>2.68</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6124,11 +6124,11 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.33</v>
+        <v>3.38</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>19/09/2023 06:42</t>
+          <t>16/09/2023 18:12</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -6136,28 +6136,28 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
+          <t>23/09/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>16/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
           <t>23/09/2023 18:58</t>
         </is>
       </c>
-      <c r="R62" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>19/09/2023 06:42</t>
-        </is>
-      </c>
-      <c r="T62" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>23/09/2023 18:58</t>
-        </is>
-      </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/ac-ajaccio-paris-fc/SfUaw3DA/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/pau-annecy/6oT3xNSG/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>16/09/2023 18:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.81</v>
+        <v>2.39</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>23/09/2023 18:54</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.7</v>
+        <v>3.13</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>16/09/2023 18:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="P63" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:55</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
         <v>3.53</v>
       </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>23/09/2023 18:54</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>16/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T63" t="n">
-        <v>4.98</v>
-      </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>23/09/2023 18:54</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/amiens-sc-valenciennes/YXUevqb4/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/laval-guingamp/Kh9vWK5p/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,63 +6285,63 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.11</v>
+        <v>2.76</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>19/09/2023 06:42</t>
+          <t>16/09/2023 18:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:37</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.31</v>
+        <v>3.15</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>19/09/2023 06:42</t>
+          <t>16/09/2023 18:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.3</v>
+        <v>3.14</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:37</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.73</v>
+        <v>2.76</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>19/09/2023 06:42</t>
+          <t>16/09/2023 18:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.24</v>
+        <v>3.57</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:37</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/angers-bastia/OMN8ysrN/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/grenoble-quevilly/S89Yi2S3/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>3.05</v>
+        <v>1.97</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.36</v>
+        <v>2.14</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>23/09/2023 18:36</t>
+          <t>23/09/2023 18:58</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.52</v>
+        <v>3.16</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>23/09/2023 18:36</t>
+          <t>23/09/2023 18:58</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.31</v>
+        <v>3.93</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.21</v>
+        <v>3.99</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>23/09/2023 18:36</t>
+          <t>23/09/2023 18:58</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/concarneau-st-etienne/bZ4UhrDc/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/ac-ajaccio-paris-fc/SfUaw3DA/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>St Etienne</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Rodez</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.25</v>
+        <v>3.05</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.44</v>
+        <v>3.36</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>23/09/2023 18:28</t>
+          <t>23/09/2023 18:36</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.27</v>
+        <v>3.34</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.11</v>
+        <v>3.52</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>23/09/2023 18:28</t>
+          <t>23/09/2023 18:36</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.22</v>
+        <v>2.31</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.32</v>
+        <v>2.21</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>23/09/2023 18:28</t>
+          <t>23/09/2023 18:36</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/dunkerque-rodez/Kr6QgOci/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/concarneau-st-etienne/bZ4UhrDc/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.76</v>
+        <v>2.11</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>16/09/2023 18:12</t>
+          <t>19/09/2023 06:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>23/09/2023 18:37</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.15</v>
+        <v>3.31</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>16/09/2023 18:12</t>
+          <t>19/09/2023 06:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>23/09/2023 18:37</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.76</v>
+        <v>3.73</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>16/09/2023 18:12</t>
+          <t>19/09/2023 06:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.57</v>
+        <v>4.24</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>23/09/2023 18:37</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/grenoble-quevilly/S89Yi2S3/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/angers-bastia/OMN8ysrN/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>16/09/2023 18:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.39</v>
+        <v>1.81</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:54</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.13</v>
+        <v>3.7</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>16/09/2023 18:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.02</v>
+        <v>3.53</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>23/09/2023 18:55</t>
+          <t>23/09/2023 18:54</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>16/09/2023 18:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.53</v>
+        <v>4.98</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:54</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/laval-guingamp/Kh9vWK5p/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-2/amiens-sc-valenciennes/YXUevqb4/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,899 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/dunkerque-rodez/Kr6QgOci/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:39</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:39</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:39</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/rodez-troyes/SUp94uC9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Amiens</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>AC Ajaccio</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:36</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/amiens-sc-ac-ajaccio/6a8xiMsA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/auxerre-annecy/dl1klKRS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
           <t>Pau FC</t>
         </is>
       </c>
-      <c r="G69" t="n">
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/bastia-pau/lOcsjtcG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/caen-grenoble/bcmHqvzp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Annecy</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>3</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>16/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
         <v>2.68</v>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>23/09/2023 18:58</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>16/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P69" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>23/09/2023 18:54</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>16/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T69" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>23/09/2023 18:58</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/france/ligue-2/pau-annecy/6oT3xNSG/</t>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:32</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:32</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:36</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/guingamp-bordeaux/Ia3IsI4d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Paris FC</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/paris-fc-laval/W2i061sc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:15</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/quevilly-angers/p6e45Ld3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ligue-2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:39</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:39</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:39</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-2/valenciennes-concarneau/v94Erbkj/</t>
         </is>
       </c>
     </row>
